--- a/may 1.xlsx
+++ b/may 1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ariana/Desktop/historical_tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF718C5-0EAF-554C-9E29-C30C2DBE9CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64B1F01F-A5E5-5748-A00E-447D56F2E604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="20500" windowHeight="16120" activeTab="2" xr2:uid="{14DA460A-B3D7-8841-8C82-6DBA7B0CC965}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="27300" windowHeight="16120" activeTab="2" xr2:uid="{14DA460A-B3D7-8841-8C82-6DBA7B0CC965}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$H$1:$H$166</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" iterate="1" iterateCount="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="307">
   <si>
     <t>Wind Energy</t>
   </si>
@@ -850,9 +850,6 @@
     <t>have the data, need to resolve multiple year issues before adding back into database</t>
   </si>
   <si>
-    <t>in spreadsheet but not source data, emailed Jenna</t>
-  </si>
-  <si>
     <t>AHRI_ASHPShipments_TimeSeries.csv</t>
   </si>
   <si>
@@ -874,14 +871,105 @@
     <t>we have primary aluminum production, not refining - pretty sure this is fine as it's the same source linked in the OG spreadsheet</t>
   </si>
   <si>
-    <t>sources need clarifying</t>
+    <t>desalination</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.scitotenv.2018.12.076</t>
+  </si>
+  <si>
+    <t>how? Using what program?</t>
+  </si>
+  <si>
+    <t>sources needing clarifying</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.techfore.2004.11.001</t>
+  </si>
+  <si>
+    <t>wet FDG (SO2 pollution)</t>
+  </si>
+  <si>
+    <t>digitized from fig 3 (p. 1348)</t>
+  </si>
+  <si>
+    <t>digitized from fig 8 (p. 712)</t>
+  </si>
+  <si>
+    <t>satellites</t>
+  </si>
+  <si>
+    <t>https://www.statista.com/statistics/896699/number-of-satellites-launched-by-year/</t>
+  </si>
+  <si>
+    <t>must be a premium subscriber to download data - do we have premium access/ do we know where the underlying data comes from?</t>
+  </si>
+  <si>
+    <t>ammonia</t>
+  </si>
+  <si>
+    <t>ethanol</t>
+  </si>
+  <si>
+    <t>hard to see where to pull data from bc of language issue</t>
+  </si>
+  <si>
+    <t>jenna emailed - original source?</t>
+  </si>
+  <si>
+    <t>not sure where to pull from, data doesn't match what's in OG spreadsheet</t>
+  </si>
+  <si>
+    <t>ashp</t>
+  </si>
+  <si>
+    <t>https://www.ahrinet.org/analytics/statistics/historical-data/central-air-conditioners-and-air-source-heat-pumps</t>
+  </si>
+  <si>
+    <t>from tables entitled - "U.S. Manufacturers’ Shipments of Central Air Conditioners and Air-Source Heat Pumps
+by BTUH"</t>
+  </si>
+  <si>
+    <t>looks like this is ASHP and central air shipments, not just ASHP - do we still want it? Look for new data or just clarify in tech name that it's both ASHP and central AC?</t>
+  </si>
+  <si>
+    <t>canals</t>
+  </si>
+  <si>
+    <t>https://ourworldindata.org/grapher/technology-infrastructure-diffusion-us</t>
+  </si>
+  <si>
+    <t>linked data doesn't contain downloaded data?</t>
+  </si>
+  <si>
+    <t>not sure where this actually came from</t>
+  </si>
+  <si>
+    <t>https://www.submarinecablemap.com/</t>
+  </si>
+  <si>
+    <t>submarine cables</t>
+  </si>
+  <si>
+    <t>unclear how underlying data was downloaded</t>
+  </si>
+  <si>
+    <t>carbon capture &amp; storage</t>
+  </si>
+  <si>
+    <t>unsure how to cite</t>
+  </si>
+  <si>
+    <t>https://quickstats.nass.usda.gov/</t>
+  </si>
+  <si>
+    <t>clarify how you navigated the tool to get this data and how you manipulated it?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -901,8 +989,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -912,12 +1007,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,19 +1023,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -2828,10 +2940,10 @@
     <sortCondition ref="H1:H166"/>
   </sortState>
   <conditionalFormatting sqref="A1:XFD1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H2">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2842,46 +2954,46 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>230</v>
       </c>
       <c r="D3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="D4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D5" t="s">
         <v>271</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="D5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2893,56 +3005,56 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>209</v>
       </c>
       <c r="D7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="D9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="D9" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>228</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>225</v>
       </c>
       <c r="D12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -2954,24 +3066,25 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>229</v>
       </c>
       <c r="D15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="19" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E20" s="4" t="s">
-        <v>269</v>
-      </c>
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A15">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2979,20 +3092,224 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F16C597-BC08-384F-832E-F93F3B103F6C}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="71.6640625" customWidth="1"/>
+    <col min="3" max="3" width="44.83203125" customWidth="1"/>
+    <col min="4" max="4" width="48.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>276</v>
+      </c>
+      <c r="B3" t="s">
         <v>277</v>
       </c>
+      <c r="C3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s">
+        <v>280</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>287</v>
+      </c>
+      <c r="B6" t="s">
+        <v>290</v>
+      </c>
+      <c r="C6" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>288</v>
+      </c>
+      <c r="B7" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="89" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>292</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B9" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>303</v>
+      </c>
+      <c r="B11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B13" t="s">
+        <v>273</v>
+      </c>
+      <c r="C13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" t="s">
+        <v>305</v>
+      </c>
+      <c r="D14" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B16" t="s">
+        <v>273</v>
+      </c>
+      <c r="C16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D16" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" t="s">
+        <v>305</v>
+      </c>
+      <c r="D17" t="s">
+        <v>306</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A12">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:A17">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>